--- a/data/output/FV2410_FV2404/UTILMD/55101.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55101.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="388">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="388">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1284,6 +1284,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U198" totalsRowShown="0">
+  <autoFilter ref="A1:U198"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,7 +1603,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11238,5 +11271,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55101.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55101.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4603,7 +4603,7 @@
         <v>361</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4823,7 +4823,7 @@
         <v>362</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5043,7 +5043,7 @@
         <v>363</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5263,7 +5263,7 @@
         <v>364</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5421,7 +5421,7 @@
         <v>365</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5625,7 +5625,7 @@
         <v>367</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5829,7 +5829,7 @@
         <v>369</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6033,7 +6033,7 @@
         <v>370</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6437,7 +6437,7 @@
         <v>372</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6745,7 +6745,7 @@
         <v>373</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7231,7 +7231,7 @@
         <v>377</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7947,7 +7947,7 @@
         <v>379</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8159,7 +8159,7 @@
         <v>380</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8629,7 +8629,7 @@
         <v>381</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9145,7 +9145,7 @@
         <v>383</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9865,7 +9865,7 @@
         <v>385</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11247,7 +11247,7 @@
         <v>387</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11797,7 +11797,7 @@
         <v>388</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N196" s="2"/>
